--- a/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23170</v>
+        <v>19658</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04911032006524946</v>
+        <v>0.04911032006524945</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.226993975385472</v>
+        <v>0.1925802537945564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5692</v>
+        <v>5863</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01293027557779126</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06204116677697051</v>
+        <v>0.06390334298622252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>6199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19575</v>
+        <v>20737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03198462916330117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006303759146039046</v>
+        <v>0.006333740127453233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1009975644449063</v>
+        <v>0.1069910827948525</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10219</v>
+        <v>9068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36343</v>
+        <v>37880</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2026592262005142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1001165819416954</v>
+        <v>0.08883628982512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3560453205172772</v>
+        <v>0.3710968510917514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>10041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3899</v>
+        <v>4198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19318</v>
+        <v>19586</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1094489960257423</v>
+        <v>0.1094489960257424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04250010928001224</v>
+        <v>0.04576058826754991</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2105703991434579</v>
+        <v>0.2134846054561012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -854,19 +854,19 @@
         <v>30728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16779</v>
+        <v>18361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48265</v>
+        <v>53522</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1585385067960384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08656973001822027</v>
+        <v>0.09473476995047961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2490241790874169</v>
+        <v>0.2761442921996349</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>54905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39460</v>
+        <v>40794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71646</v>
+        <v>71467</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5378924406180448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3865831051415909</v>
+        <v>0.3996487431697032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7018988458515212</v>
+        <v>0.7001448639827257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -904,19 +904,19 @@
         <v>45349</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33185</v>
+        <v>32944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57738</v>
+        <v>58573</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4943053444749775</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3617157934038477</v>
+        <v>0.3590925486330325</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6293499427412402</v>
+        <v>0.638449303413855</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -925,19 +925,19 @@
         <v>100254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79783</v>
+        <v>78721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121436</v>
+        <v>121580</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5172606490756539</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4116392220550287</v>
+        <v>0.4061593979511522</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6265452661731392</v>
+        <v>0.6272884533065952</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>21470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10526</v>
+        <v>10710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38865</v>
+        <v>39963</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2103380131161914</v>
+        <v>0.2103380131161913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1031212274171164</v>
+        <v>0.1049269027998173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3807512406737841</v>
+        <v>0.3915025485979022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -975,19 +975,19 @@
         <v>35167</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23834</v>
+        <v>24206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48316</v>
+        <v>48550</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3833153839214888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2597930178405642</v>
+        <v>0.2638425974335105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5266401590773246</v>
+        <v>0.529198146700417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -996,19 +996,19 @@
         <v>56637</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39269</v>
+        <v>37328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78075</v>
+        <v>77444</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2922162149650067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2026090488538376</v>
+        <v>0.1925950172080277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4028261820627163</v>
+        <v>0.3995721279030979</v>
       </c>
     </row>
     <row r="8">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9055</v>
+        <v>9730</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007416379642697955</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02287033787236857</v>
+        <v>0.02457613565032659</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>3707</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8710</v>
+        <v>8568</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01161267568789351</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003148725304488826</v>
+        <v>0.003064502455155363</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02728753877512969</v>
+        <v>0.02684315975775026</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1142,19 +1142,19 @@
         <v>6643</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15315</v>
+        <v>14875</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009289448219720706</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003919692020754251</v>
+        <v>0.003914375592876627</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02141525031973114</v>
+        <v>0.02080082937287956</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>51520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35914</v>
+        <v>35522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73019</v>
+        <v>70638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1301285103436292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09071139261349408</v>
+        <v>0.08972023457412936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1844284597695424</v>
+        <v>0.178413696838835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1192,19 +1192,19 @@
         <v>42218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31529</v>
+        <v>30513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55881</v>
+        <v>56103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1322611608179595</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09877313578673588</v>
+        <v>0.09559115888923159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1750623462219125</v>
+        <v>0.1757584650379345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1213,19 +1213,19 @@
         <v>93739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72757</v>
+        <v>72922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118002</v>
+        <v>119639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1310804452276835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1017396017577502</v>
+        <v>0.1019708252570721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1650086324452684</v>
+        <v>0.1672985485944961</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>228002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>199869</v>
+        <v>201670</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>251709</v>
+        <v>249936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5758800355894848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5048226371658076</v>
+        <v>0.5093711835277999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6357564966903124</v>
+        <v>0.6312777905258714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>183</v>
@@ -1263,19 +1263,19 @@
         <v>197719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178183</v>
+        <v>179354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214736</v>
+        <v>214778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6194114599126939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5582073363958611</v>
+        <v>0.5618758926563816</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6727205061145737</v>
+        <v>0.6728541537705356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>336</v>
@@ -1284,19 +1284,19 @@
         <v>425722</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>395567</v>
+        <v>391839</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>459738</v>
+        <v>456568</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5953108245840317</v>
+        <v>0.5953108245840318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5531441577157163</v>
+        <v>0.5479302379722411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6428779016729709</v>
+        <v>0.6384449005198977</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>113461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90197</v>
+        <v>91048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139935</v>
+        <v>138420</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2865750744241881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2278173141999479</v>
+        <v>0.2299664477906979</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3534419557685139</v>
+        <v>0.3496155215482822</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -1334,19 +1334,19 @@
         <v>75561</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61345</v>
+        <v>60389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93444</v>
+        <v>92803</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2367147035814531</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1921790124091719</v>
+        <v>0.1891857189093521</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2927398534648506</v>
+        <v>0.2907327122092092</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>139</v>
@@ -1355,19 +1355,19 @@
         <v>189021</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160853</v>
+        <v>163109</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>218607</v>
+        <v>219818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.264319281968564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2249298032031893</v>
+        <v>0.22808510690491</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3056907556775909</v>
+        <v>0.3073838596926743</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>18801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11086</v>
+        <v>11391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30265</v>
+        <v>30052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03517218005105244</v>
+        <v>0.03517218005105243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02074057644416302</v>
+        <v>0.02131099155714055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05662086646324435</v>
+        <v>0.05622078740090498</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>9655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4899</v>
+        <v>4865</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16721</v>
+        <v>15535</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02440452935309936</v>
+        <v>0.02440452935309935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01238400147093556</v>
+        <v>0.01229815879782313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04226643553821642</v>
+        <v>0.03926958952464546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -1501,19 +1501,19 @@
         <v>28455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18932</v>
+        <v>18947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41232</v>
+        <v>41235</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03059244194792073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0203540611346872</v>
+        <v>0.02037017847148578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04432938732381562</v>
+        <v>0.04433218323722838</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>64950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49988</v>
+        <v>50068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81822</v>
+        <v>82451</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1215090178482804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09351749760580341</v>
+        <v>0.09366678711705065</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1530738560725604</v>
+        <v>0.1542495179269913</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>74</v>
@@ -1551,19 +1551,19 @@
         <v>56904</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45330</v>
+        <v>46771</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69220</v>
+        <v>70242</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1438374969357983</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1145817462082168</v>
+        <v>0.1182248097460562</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1749691092386881</v>
+        <v>0.1775542986623796</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -1572,19 +1572,19 @@
         <v>121853</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>101207</v>
+        <v>103062</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>141712</v>
+        <v>141199</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1310058514037675</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1088091265207388</v>
+        <v>0.1108032325060815</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1523556133711554</v>
+        <v>0.1518042902025196</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>298470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>274927</v>
+        <v>273182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>323980</v>
+        <v>322924</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5583812223685174</v>
+        <v>0.5583812223685175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5143366267127488</v>
+        <v>0.5110712006181167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6061045553535458</v>
+        <v>0.6041285294677794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -1622,19 +1622,19 @@
         <v>238680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>222046</v>
+        <v>220920</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>254787</v>
+        <v>254004</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6033207886191319</v>
+        <v>0.6033207886191317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5612742915043071</v>
+        <v>0.5584285368329716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6440359156856357</v>
+        <v>0.6420557860678622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>604</v>
@@ -1643,19 +1643,19 @@
         <v>537150</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505540</v>
+        <v>506554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>567051</v>
+        <v>563516</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5774950894198766</v>
+        <v>0.5774950894198767</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5435118666163974</v>
+        <v>0.5446020230753874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6096429680967186</v>
+        <v>0.605841478075967</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>152307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130853</v>
+        <v>130448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175586</v>
+        <v>177752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2849375797321498</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2448014625752918</v>
+        <v>0.2440434361328826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3284887933188698</v>
+        <v>0.3325398958078371</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -1693,19 +1693,19 @@
         <v>90372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75635</v>
+        <v>77410</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104642</v>
+        <v>105213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2284371850919706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1911855476295691</v>
+        <v>0.1956723255680324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2645088275963073</v>
+        <v>0.2659517741068937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>252</v>
@@ -1714,19 +1714,19 @@
         <v>242679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216002</v>
+        <v>217375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273004</v>
+        <v>269097</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2609066172284352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2322259605832623</v>
+        <v>0.2337020522001566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.293509015767311</v>
+        <v>0.2893087328724226</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>19588</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11452</v>
+        <v>11150</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32370</v>
+        <v>32136</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03596433159547328</v>
+        <v>0.03596433159547327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02102634060402185</v>
+        <v>0.02047209788997504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05943186325472471</v>
+        <v>0.05900192932899754</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1839,19 +1839,19 @@
         <v>13128</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8227</v>
+        <v>8311</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20109</v>
+        <v>20386</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02886262157198826</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0180872298591135</v>
+        <v>0.01827275408056292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0442122111944548</v>
+        <v>0.04482033787867243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -1860,19 +1860,19 @@
         <v>32716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22296</v>
+        <v>22918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45775</v>
+        <v>45967</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03273261006031379</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02230742972919851</v>
+        <v>0.02292946447434217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04579861599810179</v>
+        <v>0.04599090653858783</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>54208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41287</v>
+        <v>41483</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69928</v>
+        <v>71244</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09952652257238975</v>
+        <v>0.09952652257238973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07580257623264905</v>
+        <v>0.07616269643643507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1283893108918269</v>
+        <v>0.1308047347788947</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1910,19 +1910,19 @@
         <v>51603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41677</v>
+        <v>41477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65226</v>
+        <v>63524</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1134549023043771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09163289308116464</v>
+        <v>0.09119250358874112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1434070062163834</v>
+        <v>0.1396650124796697</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -1931,19 +1931,19 @@
         <v>105811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89401</v>
+        <v>88971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>126276</v>
+        <v>124481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1058648051241819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0894466400017669</v>
+        <v>0.08901646932700624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1263409084085952</v>
+        <v>0.1245448574106139</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>335383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>311206</v>
+        <v>312856</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>359101</v>
+        <v>359012</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6157662478171007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5713771236573305</v>
+        <v>0.5744066889029313</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6593126081602418</v>
+        <v>0.659149681177302</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>434</v>
@@ -1981,19 +1981,19 @@
         <v>275463</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>258832</v>
+        <v>257471</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>293219</v>
+        <v>291572</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6056406507955571</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5690762684322043</v>
+        <v>0.5660827119097387</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6446795630813916</v>
+        <v>0.6410585380965277</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>758</v>
@@ -2002,19 +2002,19 @@
         <v>610846</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>581256</v>
+        <v>580884</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>636856</v>
+        <v>637893</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6111584688677131</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5815541906717104</v>
+        <v>0.5811818176386283</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6371825517948869</v>
+        <v>0.6382201260066978</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>135480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115066</v>
+        <v>116270</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159066</v>
+        <v>155619</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2487428980150364</v>
+        <v>0.2487428980150363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2112631576491236</v>
+        <v>0.2134732070353064</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2920475655755477</v>
+        <v>0.2857186769465809</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>180</v>
@@ -2052,19 +2052,19 @@
         <v>114636</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99060</v>
+        <v>99131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128363</v>
+        <v>129688</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2520418253280776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2177954423239627</v>
+        <v>0.2179523218609023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2822227201683336</v>
+        <v>0.2851350445334556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>309</v>
@@ -2073,19 +2073,19 @@
         <v>250116</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>224038</v>
+        <v>224367</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277684</v>
+        <v>275800</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2502441159477913</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.224153233555856</v>
+        <v>0.2244821820606253</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2778258291854379</v>
+        <v>0.2759409596135869</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>7127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3519</v>
+        <v>3411</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13635</v>
+        <v>13435</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02163469870888379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01068376321750519</v>
+        <v>0.01035477106553534</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04139349542252554</v>
+        <v>0.04078648850984185</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2198,19 +2198,19 @@
         <v>7433</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3992</v>
+        <v>4012</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12488</v>
+        <v>12604</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03201256344764822</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01719186803126625</v>
+        <v>0.01728124231506772</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05378582229900448</v>
+        <v>0.0542868090775068</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -2219,19 +2219,19 @@
         <v>14559</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9191</v>
+        <v>8960</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21907</v>
+        <v>21851</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02592525802709586</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01636581336432999</v>
+        <v>0.01595532008324859</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03901008081148155</v>
+        <v>0.03890929495816237</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>34662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24945</v>
+        <v>24775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45114</v>
+        <v>45398</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1052271351345169</v>
+        <v>0.1052271351345168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07572717862843975</v>
+        <v>0.07521298805734745</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1369566670204156</v>
+        <v>0.1378189986247793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2269,19 +2269,19 @@
         <v>21703</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15600</v>
+        <v>15556</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29486</v>
+        <v>28615</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09347666233072023</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06719132113803836</v>
+        <v>0.06700244871445481</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1269979364583068</v>
+        <v>0.1232470009563709</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -2290,19 +2290,19 @@
         <v>56365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45417</v>
+        <v>44827</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70511</v>
+        <v>69638</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1003690933454957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08087432260961425</v>
+        <v>0.07982294534790636</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1255574434027915</v>
+        <v>0.1240037874228975</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>216529</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>200429</v>
+        <v>200080</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>232312</v>
+        <v>234029</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6573350318986125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6084595895301471</v>
+        <v>0.6074001216945478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.705250950210227</v>
+        <v>0.7104620549985559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>241</v>
@@ -2340,19 +2340,19 @@
         <v>140329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128018</v>
+        <v>128460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>151577</v>
+        <v>151289</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6044059506511237</v>
+        <v>0.6044059506511238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5513828555409714</v>
+        <v>0.55328848911485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6528533882331337</v>
+        <v>0.6516148427054669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -2361,19 +2361,19 @@
         <v>356857</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>337780</v>
+        <v>335893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>376657</v>
+        <v>376988</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6354523644648629</v>
+        <v>0.6354523644648632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6014808156793237</v>
+        <v>0.5981207005388826</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.670709737576005</v>
+        <v>0.6712980277758681</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>71086</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>57144</v>
+        <v>55145</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>86369</v>
+        <v>86024</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2158031342579869</v>
+        <v>0.2158031342579868</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1734769263052981</v>
+        <v>0.1674093400941958</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2621990090647178</v>
+        <v>0.2611507548349595</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>101</v>
@@ -2411,19 +2411,19 @@
         <v>62712</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52936</v>
+        <v>53695</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74860</v>
+        <v>73280</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2701048235705078</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.228000666742018</v>
+        <v>0.2312705122455357</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3224259829905365</v>
+        <v>0.3156235660502261</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>173</v>
@@ -2432,19 +2432,19 @@
         <v>133798</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>114665</v>
+        <v>115608</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>151391</v>
+        <v>152290</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2382532841625454</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.204182399676134</v>
+        <v>0.2058612458670517</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2695796206429609</v>
+        <v>0.271180509782872</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>53465</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38765</v>
+        <v>39484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>73088</v>
+        <v>71385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02804205399084524</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02033225327566743</v>
+        <v>0.02070912871226455</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03833468146535501</v>
+        <v>0.03744145533557636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -2557,19 +2557,19 @@
         <v>35108</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25457</v>
+        <v>26144</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45863</v>
+        <v>46882</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0235061203825458</v>
+        <v>0.02350612038254579</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01704453025305273</v>
+        <v>0.01750444116982015</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03070700009097103</v>
+        <v>0.03138963277080736</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2578,19 +2578,19 @@
         <v>88572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>69747</v>
+        <v>71602</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109989</v>
+        <v>111983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02604958128945074</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02051283070069544</v>
+        <v>0.02105861029877179</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03234816845828612</v>
+        <v>0.03293463106628212</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>226027</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>193139</v>
+        <v>194187</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>257585</v>
+        <v>262448</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.118550723851103</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1013012275338185</v>
+        <v>0.1018505997233145</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1351027438634491</v>
+        <v>0.1376536601415743</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>232</v>
@@ -2628,19 +2628,19 @@
         <v>182469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>159267</v>
+        <v>159818</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>205816</v>
+        <v>206484</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1221701136094584</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1066354692717825</v>
+        <v>0.1070047203702022</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.137801932585157</v>
+        <v>0.1382489949410314</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>418</v>
@@ -2649,19 +2649,19 @@
         <v>408496</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>370697</v>
+        <v>370802</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>451686</v>
+        <v>452325</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1201405917618755</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1090239101112838</v>
+        <v>0.1090545875911759</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1328430794529535</v>
+        <v>0.1330310842850507</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>1133289</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1084301</v>
+        <v>1085674</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1180477</v>
+        <v>1180697</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5944077996908947</v>
+        <v>0.5944077996908946</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5687137966519212</v>
+        <v>0.5694336253167128</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6191577123506464</v>
+        <v>0.6192729852960299</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1218</v>
@@ -2699,19 +2699,19 @@
         <v>897540</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>862832</v>
+        <v>861313</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>928987</v>
+        <v>931739</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6009385087121901</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5777003971742817</v>
+        <v>0.5766830941172061</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6219937146205197</v>
+        <v>0.6238361642324649</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2231</v>
@@ -2720,19 +2720,19 @@
         <v>2030829</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1973853</v>
+        <v>1974654</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2092576</v>
+        <v>2087885</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5972765055780076</v>
+        <v>0.5972765055780077</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5805197180126627</v>
+        <v>0.5807553243082225</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6154367951154007</v>
+        <v>0.6140569931696537</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>493804</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>452267</v>
+        <v>448571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>540627</v>
+        <v>537096</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2589994224671571</v>
+        <v>0.258999422467157</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2372129071589393</v>
+        <v>0.2352743504616767</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2835578157080251</v>
+        <v>0.2817056686743167</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>501</v>
@@ -2770,19 +2770,19 @@
         <v>378447</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>349767</v>
+        <v>348262</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>412592</v>
+        <v>409888</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2533852572958056</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2341829557702763</v>
+        <v>0.2331752072088819</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2762466558433899</v>
+        <v>0.2744363030196774</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>902</v>
@@ -2791,19 +2791,19 @@
         <v>872251</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>820790</v>
+        <v>818314</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>925814</v>
+        <v>922648</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2565333213706661</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2413981818954793</v>
+        <v>0.2406701173628265</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2722863382697874</v>
+        <v>0.2713553715022712</v>
       </c>
     </row>
     <row r="33">
